--- a/Project1/object.xlsx
+++ b/Project1/object.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\hoc\HK1 2020-2021\phat trien GAME\MarioBros\Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD470B16-30B4-4504-A566-85D64ED99AB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A3EEFF-1D59-4D3F-81ED-5BA84DB7F900}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{63E25CF7-D10F-447E-8225-8804EF2C7F20}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>x</t>
   </si>
@@ -46,6 +46,15 @@
   </si>
   <si>
     <t>BRICK</t>
+  </si>
+  <si>
+    <t>COLLISION PIPE:</t>
+  </si>
+  <si>
+    <t>GHOST OBJECT: 3</t>
+  </si>
+  <si>
+    <t>CLOUD: 4</t>
   </si>
 </sst>
 </file>
@@ -397,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE1CBE1-69B9-4E5D-8C71-258DF6953A74}">
-  <dimension ref="A1:D208"/>
+  <dimension ref="A1:D313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A208" sqref="A208:D208"/>
+    <sheetView tabSelected="1" topLeftCell="A242" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A314" sqref="A314:XFD315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1371,26 +1380,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>1</v>
-      </c>
-      <c r="B70">
-        <v>3456</v>
-      </c>
-      <c r="C70">
-        <v>1250</v>
-      </c>
-      <c r="D70">
-        <v>2</v>
-      </c>
-    </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1</v>
       </c>
       <c r="B71">
-        <v>3504</v>
+        <v>3456</v>
       </c>
       <c r="C71">
         <v>1250</v>
@@ -1404,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="B72">
-        <v>3552</v>
+        <v>3504</v>
       </c>
       <c r="C72">
         <v>1250</v>
@@ -1418,7 +1413,7 @@
         <v>1</v>
       </c>
       <c r="B73">
-        <v>3600</v>
+        <v>3552</v>
       </c>
       <c r="C73">
         <v>1250</v>
@@ -1432,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="B74">
-        <v>3648</v>
+        <v>3600</v>
       </c>
       <c r="C74">
         <v>1250</v>
@@ -1446,7 +1441,7 @@
         <v>1</v>
       </c>
       <c r="B75">
-        <v>3696</v>
+        <v>3648</v>
       </c>
       <c r="C75">
         <v>1250</v>
@@ -1460,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="B76">
-        <v>3744</v>
+        <v>3696</v>
       </c>
       <c r="C76">
         <v>1250</v>
@@ -1474,7 +1469,7 @@
         <v>1</v>
       </c>
       <c r="B77">
-        <v>3792</v>
+        <v>3744</v>
       </c>
       <c r="C77">
         <v>1250</v>
@@ -1488,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="B78">
-        <v>3840</v>
+        <v>3792</v>
       </c>
       <c r="C78">
         <v>1250</v>
@@ -1502,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="B79">
-        <v>3888</v>
+        <v>3840</v>
       </c>
       <c r="C79">
         <v>1250</v>
@@ -1516,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="B80">
-        <v>3936</v>
+        <v>3888</v>
       </c>
       <c r="C80">
         <v>1250</v>
@@ -1530,7 +1525,7 @@
         <v>1</v>
       </c>
       <c r="B81">
-        <v>3984</v>
+        <v>3936</v>
       </c>
       <c r="C81">
         <v>1250</v>
@@ -1544,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="B82">
-        <v>4032</v>
+        <v>3984</v>
       </c>
       <c r="C82">
         <v>1250</v>
@@ -1558,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="B83">
-        <v>4080</v>
+        <v>4032</v>
       </c>
       <c r="C83">
         <v>1250</v>
@@ -1572,7 +1567,7 @@
         <v>1</v>
       </c>
       <c r="B84">
-        <v>4128</v>
+        <v>4080</v>
       </c>
       <c r="C84">
         <v>1250</v>
@@ -1586,7 +1581,7 @@
         <v>1</v>
       </c>
       <c r="B85">
-        <v>4176</v>
+        <v>4128</v>
       </c>
       <c r="C85">
         <v>1250</v>
@@ -1600,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="B86">
-        <v>4224</v>
+        <v>4176</v>
       </c>
       <c r="C86">
         <v>1250</v>
@@ -1614,7 +1609,7 @@
         <v>1</v>
       </c>
       <c r="B87">
-        <v>4272</v>
+        <v>4224</v>
       </c>
       <c r="C87">
         <v>1250</v>
@@ -1628,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="B88">
-        <v>4320</v>
+        <v>4272</v>
       </c>
       <c r="C88">
         <v>1250</v>
@@ -1642,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="B89">
-        <v>4368</v>
+        <v>4320</v>
       </c>
       <c r="C89">
         <v>1250</v>
@@ -1656,7 +1651,7 @@
         <v>1</v>
       </c>
       <c r="B90">
-        <v>4416</v>
+        <v>4368</v>
       </c>
       <c r="C90">
         <v>1250</v>
@@ -1670,26 +1665,26 @@
         <v>1</v>
       </c>
       <c r="B91">
+        <v>4416</v>
+      </c>
+      <c r="C91">
+        <v>1250</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92">
         <v>4464</v>
       </c>
-      <c r="C91">
-        <v>1250</v>
-      </c>
-      <c r="D91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>1</v>
-      </c>
-      <c r="B93">
-        <v>4608</v>
-      </c>
-      <c r="C93">
-        <v>1250</v>
-      </c>
-      <c r="D93">
+      <c r="C92">
+        <v>1250</v>
+      </c>
+      <c r="D92">
         <v>2</v>
       </c>
     </row>
@@ -1698,7 +1693,7 @@
         <v>1</v>
       </c>
       <c r="B94">
-        <v>4656</v>
+        <v>4608</v>
       </c>
       <c r="C94">
         <v>1250</v>
@@ -1712,7 +1707,7 @@
         <v>1</v>
       </c>
       <c r="B95">
-        <v>4704</v>
+        <v>4656</v>
       </c>
       <c r="C95">
         <v>1250</v>
@@ -1726,7 +1721,7 @@
         <v>1</v>
       </c>
       <c r="B96">
-        <v>4752</v>
+        <v>4704</v>
       </c>
       <c r="C96">
         <v>1250</v>
@@ -1740,26 +1735,26 @@
         <v>1</v>
       </c>
       <c r="B97">
+        <v>4752</v>
+      </c>
+      <c r="C97">
+        <v>1250</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98">
         <v>4800</v>
       </c>
-      <c r="C97">
-        <v>1250</v>
-      </c>
-      <c r="D97">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>1</v>
-      </c>
-      <c r="B99">
-        <v>4992</v>
-      </c>
-      <c r="C99">
-        <v>1250</v>
-      </c>
-      <c r="D99">
+      <c r="C98">
+        <v>1250</v>
+      </c>
+      <c r="D98">
         <v>2</v>
       </c>
     </row>
@@ -1768,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="B100">
-        <v>5040</v>
+        <v>4992</v>
       </c>
       <c r="C100">
         <v>1250</v>
@@ -1782,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="B101">
-        <v>5088</v>
+        <v>5040</v>
       </c>
       <c r="C101">
         <v>1250</v>
@@ -1796,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="B102">
-        <v>5136</v>
+        <v>5088</v>
       </c>
       <c r="C102">
         <v>1250</v>
@@ -1810,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="B103">
-        <v>5184</v>
+        <v>5136</v>
       </c>
       <c r="C103">
         <v>1250</v>
@@ -1824,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="B104">
-        <v>5232</v>
+        <v>5184</v>
       </c>
       <c r="C104">
         <v>1250</v>
@@ -1838,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="B105">
-        <v>5280</v>
+        <v>5232</v>
       </c>
       <c r="C105">
         <v>1250</v>
@@ -1852,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="B106">
-        <v>5328</v>
+        <v>5280</v>
       </c>
       <c r="C106">
         <v>1250</v>
@@ -1866,7 +1861,7 @@
         <v>1</v>
       </c>
       <c r="B107">
-        <v>5376</v>
+        <v>5328</v>
       </c>
       <c r="C107">
         <v>1250</v>
@@ -1880,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="B108">
-        <v>5424</v>
+        <v>5376</v>
       </c>
       <c r="C108">
         <v>1250</v>
@@ -1894,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="B109">
-        <v>5472</v>
+        <v>5424</v>
       </c>
       <c r="C109">
         <v>1250</v>
@@ -1908,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="B110">
-        <v>5520</v>
+        <v>5472</v>
       </c>
       <c r="C110">
         <v>1250</v>
@@ -1922,7 +1917,7 @@
         <v>1</v>
       </c>
       <c r="B111">
-        <v>5568</v>
+        <v>5520</v>
       </c>
       <c r="C111">
         <v>1250</v>
@@ -1936,7 +1931,7 @@
         <v>1</v>
       </c>
       <c r="B112">
-        <v>5616</v>
+        <v>5568</v>
       </c>
       <c r="C112">
         <v>1250</v>
@@ -1950,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="B113">
-        <v>5664</v>
+        <v>5616</v>
       </c>
       <c r="C113">
         <v>1250</v>
@@ -1964,7 +1959,7 @@
         <v>1</v>
       </c>
       <c r="B114">
-        <v>5712</v>
+        <v>5664</v>
       </c>
       <c r="C114">
         <v>1250</v>
@@ -1978,7 +1973,7 @@
         <v>1</v>
       </c>
       <c r="B115">
-        <v>5760</v>
+        <v>5712</v>
       </c>
       <c r="C115">
         <v>1250</v>
@@ -1992,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="B116">
-        <v>5808</v>
+        <v>5760</v>
       </c>
       <c r="C116">
         <v>1250</v>
@@ -2006,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="B117">
-        <v>5856</v>
+        <v>5808</v>
       </c>
       <c r="C117">
         <v>1250</v>
@@ -2020,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="B118">
-        <v>5904</v>
+        <v>5856</v>
       </c>
       <c r="C118">
         <v>1250</v>
@@ -2034,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="B119">
-        <v>5952</v>
+        <v>5904</v>
       </c>
       <c r="C119">
         <v>1250</v>
@@ -2048,7 +2043,7 @@
         <v>1</v>
       </c>
       <c r="B120">
-        <v>6000</v>
+        <v>5952</v>
       </c>
       <c r="C120">
         <v>1250</v>
@@ -2062,7 +2057,7 @@
         <v>1</v>
       </c>
       <c r="B121">
-        <v>6048</v>
+        <v>6000</v>
       </c>
       <c r="C121">
         <v>1250</v>
@@ -2076,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="B122">
-        <v>6096</v>
+        <v>6048</v>
       </c>
       <c r="C122">
         <v>1250</v>
@@ -2090,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="B123">
-        <v>6144</v>
+        <v>6096</v>
       </c>
       <c r="C123">
         <v>1250</v>
@@ -2104,7 +2099,7 @@
         <v>1</v>
       </c>
       <c r="B124">
-        <v>6192</v>
+        <v>6144</v>
       </c>
       <c r="C124">
         <v>1250</v>
@@ -2118,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="B125">
-        <v>6240</v>
+        <v>6192</v>
       </c>
       <c r="C125">
         <v>1250</v>
@@ -2132,7 +2127,7 @@
         <v>1</v>
       </c>
       <c r="B126">
-        <v>6288</v>
+        <v>6240</v>
       </c>
       <c r="C126">
         <v>1250</v>
@@ -2146,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="B127">
-        <v>6336</v>
+        <v>6288</v>
       </c>
       <c r="C127">
         <v>1250</v>
@@ -2160,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="B128">
-        <v>6384</v>
+        <v>6336</v>
       </c>
       <c r="C128">
         <v>1250</v>
@@ -2174,7 +2169,7 @@
         <v>1</v>
       </c>
       <c r="B129">
-        <v>6432</v>
+        <v>6384</v>
       </c>
       <c r="C129">
         <v>1250</v>
@@ -2188,7 +2183,7 @@
         <v>1</v>
       </c>
       <c r="B130">
-        <v>6480</v>
+        <v>6432</v>
       </c>
       <c r="C130">
         <v>1250</v>
@@ -2202,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="B131">
-        <v>6528</v>
+        <v>6480</v>
       </c>
       <c r="C131">
         <v>1250</v>
@@ -2216,7 +2211,7 @@
         <v>1</v>
       </c>
       <c r="B132">
-        <v>6576</v>
+        <v>6528</v>
       </c>
       <c r="C132">
         <v>1250</v>
@@ -2230,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="B133">
-        <v>6624</v>
+        <v>6576</v>
       </c>
       <c r="C133">
         <v>1250</v>
@@ -2244,26 +2239,26 @@
         <v>1</v>
       </c>
       <c r="B134">
+        <v>6624</v>
+      </c>
+      <c r="C134">
+        <v>1250</v>
+      </c>
+      <c r="D134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>1</v>
+      </c>
+      <c r="B135">
         <v>6672</v>
       </c>
-      <c r="C134">
-        <v>1250</v>
-      </c>
-      <c r="D134">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>1</v>
-      </c>
-      <c r="B136">
-        <v>6768</v>
-      </c>
-      <c r="C136">
-        <v>1250</v>
-      </c>
-      <c r="D136">
+      <c r="C135">
+        <v>1250</v>
+      </c>
+      <c r="D135">
         <v>2</v>
       </c>
     </row>
@@ -2272,7 +2267,7 @@
         <v>1</v>
       </c>
       <c r="B137">
-        <v>6816</v>
+        <v>6768</v>
       </c>
       <c r="C137">
         <v>1250</v>
@@ -2286,7 +2281,7 @@
         <v>1</v>
       </c>
       <c r="B138">
-        <v>6864</v>
+        <v>6816</v>
       </c>
       <c r="C138">
         <v>1250</v>
@@ -2300,7 +2295,7 @@
         <v>1</v>
       </c>
       <c r="B139">
-        <v>6912</v>
+        <v>6864</v>
       </c>
       <c r="C139">
         <v>1250</v>
@@ -2314,7 +2309,7 @@
         <v>1</v>
       </c>
       <c r="B140">
-        <v>6960</v>
+        <v>6912</v>
       </c>
       <c r="C140">
         <v>1250</v>
@@ -2328,7 +2323,7 @@
         <v>1</v>
       </c>
       <c r="B141">
-        <v>7008</v>
+        <v>6960</v>
       </c>
       <c r="C141">
         <v>1250</v>
@@ -2342,7 +2337,7 @@
         <v>1</v>
       </c>
       <c r="B142">
-        <v>7056</v>
+        <v>7008</v>
       </c>
       <c r="C142">
         <v>1250</v>
@@ -2356,7 +2351,7 @@
         <v>1</v>
       </c>
       <c r="B143">
-        <v>7104</v>
+        <v>7056</v>
       </c>
       <c r="C143">
         <v>1250</v>
@@ -2370,7 +2365,7 @@
         <v>1</v>
       </c>
       <c r="B144">
-        <v>7152</v>
+        <v>7104</v>
       </c>
       <c r="C144">
         <v>1250</v>
@@ -2384,7 +2379,7 @@
         <v>1</v>
       </c>
       <c r="B145">
-        <v>7200</v>
+        <v>7152</v>
       </c>
       <c r="C145">
         <v>1250</v>
@@ -2398,7 +2393,7 @@
         <v>1</v>
       </c>
       <c r="B146">
-        <v>7248</v>
+        <v>7200</v>
       </c>
       <c r="C146">
         <v>1250</v>
@@ -2412,7 +2407,7 @@
         <v>1</v>
       </c>
       <c r="B147">
-        <v>7296</v>
+        <v>7248</v>
       </c>
       <c r="C147">
         <v>1250</v>
@@ -2426,7 +2421,7 @@
         <v>1</v>
       </c>
       <c r="B148">
-        <v>7344</v>
+        <v>7296</v>
       </c>
       <c r="C148">
         <v>1250</v>
@@ -2440,7 +2435,7 @@
         <v>1</v>
       </c>
       <c r="B149">
-        <v>7392</v>
+        <v>7344</v>
       </c>
       <c r="C149">
         <v>1250</v>
@@ -2454,7 +2449,7 @@
         <v>1</v>
       </c>
       <c r="B150">
-        <v>7440</v>
+        <v>7392</v>
       </c>
       <c r="C150">
         <v>1250</v>
@@ -2468,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="B151">
-        <v>7488</v>
+        <v>7440</v>
       </c>
       <c r="C151">
         <v>1250</v>
@@ -2482,7 +2477,7 @@
         <v>1</v>
       </c>
       <c r="B152">
-        <v>7536</v>
+        <v>7488</v>
       </c>
       <c r="C152">
         <v>1250</v>
@@ -2496,7 +2491,7 @@
         <v>1</v>
       </c>
       <c r="B153">
-        <v>7584</v>
+        <v>7536</v>
       </c>
       <c r="C153">
         <v>1250</v>
@@ -2510,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="B154">
-        <v>7632</v>
+        <v>7584</v>
       </c>
       <c r="C154">
         <v>1250</v>
@@ -2524,7 +2519,7 @@
         <v>1</v>
       </c>
       <c r="B155">
-        <v>7680</v>
+        <v>7632</v>
       </c>
       <c r="C155">
         <v>1250</v>
@@ -2538,7 +2533,7 @@
         <v>1</v>
       </c>
       <c r="B156">
-        <v>7728</v>
+        <v>7680</v>
       </c>
       <c r="C156">
         <v>1250</v>
@@ -2552,7 +2547,7 @@
         <v>1</v>
       </c>
       <c r="B157">
-        <v>7776</v>
+        <v>7728</v>
       </c>
       <c r="C157">
         <v>1250</v>
@@ -2566,7 +2561,7 @@
         <v>1</v>
       </c>
       <c r="B158">
-        <v>7824</v>
+        <v>7776</v>
       </c>
       <c r="C158">
         <v>1250</v>
@@ -2580,7 +2575,7 @@
         <v>1</v>
       </c>
       <c r="B159">
-        <v>7872</v>
+        <v>7824</v>
       </c>
       <c r="C159">
         <v>1250</v>
@@ -2594,7 +2589,7 @@
         <v>1</v>
       </c>
       <c r="B160">
-        <v>7920</v>
+        <v>7872</v>
       </c>
       <c r="C160">
         <v>1250</v>
@@ -2608,7 +2603,7 @@
         <v>1</v>
       </c>
       <c r="B161">
-        <v>7968</v>
+        <v>7920</v>
       </c>
       <c r="C161">
         <v>1250</v>
@@ -2622,7 +2617,7 @@
         <v>1</v>
       </c>
       <c r="B162">
-        <v>8016</v>
+        <v>7968</v>
       </c>
       <c r="C162">
         <v>1250</v>
@@ -2636,7 +2631,7 @@
         <v>1</v>
       </c>
       <c r="B163">
-        <v>8064</v>
+        <v>8016</v>
       </c>
       <c r="C163">
         <v>1250</v>
@@ -2650,7 +2645,7 @@
         <v>1</v>
       </c>
       <c r="B164">
-        <v>8112</v>
+        <v>8064</v>
       </c>
       <c r="C164">
         <v>1250</v>
@@ -2664,7 +2659,7 @@
         <v>1</v>
       </c>
       <c r="B165">
-        <v>8160</v>
+        <v>8112</v>
       </c>
       <c r="C165">
         <v>1250</v>
@@ -2678,7 +2673,7 @@
         <v>1</v>
       </c>
       <c r="B166">
-        <v>8208</v>
+        <v>8160</v>
       </c>
       <c r="C166">
         <v>1250</v>
@@ -2692,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="B167">
-        <v>8256</v>
+        <v>8208</v>
       </c>
       <c r="C167">
         <v>1250</v>
@@ -2706,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="B168">
-        <v>8304</v>
+        <v>8256</v>
       </c>
       <c r="C168">
         <v>1250</v>
@@ -2720,7 +2715,7 @@
         <v>1</v>
       </c>
       <c r="B169">
-        <v>8352</v>
+        <v>8304</v>
       </c>
       <c r="C169">
         <v>1250</v>
@@ -2734,32 +2729,32 @@
         <v>1</v>
       </c>
       <c r="B170">
+        <v>8352</v>
+      </c>
+      <c r="C170">
+        <v>1250</v>
+      </c>
+      <c r="D170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>1</v>
+      </c>
+      <c r="B171">
         <v>8400</v>
       </c>
-      <c r="C170">
-        <v>1250</v>
-      </c>
-      <c r="D170">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>3</v>
+      <c r="C171">
+        <v>1250</v>
+      </c>
+      <c r="D171">
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>1</v>
-      </c>
-      <c r="B172">
-        <v>4512</v>
-      </c>
-      <c r="C172">
-        <v>1010</v>
-      </c>
-      <c r="D172">
-        <v>2</v>
+      <c r="A172" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -2767,7 +2762,7 @@
         <v>1</v>
       </c>
       <c r="B173">
-        <v>4560</v>
+        <v>4512</v>
       </c>
       <c r="C173">
         <v>1010</v>
@@ -2776,17 +2771,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>1</v>
-      </c>
-      <c r="B175">
-        <v>4704</v>
-      </c>
-      <c r="C175">
-        <v>1202</v>
-      </c>
-      <c r="D175">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>1</v>
+      </c>
+      <c r="B174">
+        <v>4560</v>
+      </c>
+      <c r="C174">
+        <v>1010</v>
+      </c>
+      <c r="D174">
         <v>2</v>
       </c>
     </row>
@@ -2795,7 +2790,7 @@
         <v>1</v>
       </c>
       <c r="B176">
-        <v>4752</v>
+        <v>4704</v>
       </c>
       <c r="C176">
         <v>1202</v>
@@ -2809,7 +2804,7 @@
         <v>1</v>
       </c>
       <c r="B177">
-        <v>4800</v>
+        <v>4752</v>
       </c>
       <c r="C177">
         <v>1202</v>
@@ -2823,10 +2818,10 @@
         <v>1</v>
       </c>
       <c r="B178">
-        <v>4752</v>
+        <v>4800</v>
       </c>
       <c r="C178">
-        <v>1154</v>
+        <v>1202</v>
       </c>
       <c r="D178">
         <v>2</v>
@@ -2837,7 +2832,7 @@
         <v>1</v>
       </c>
       <c r="B179">
-        <v>4800</v>
+        <v>4752</v>
       </c>
       <c r="C179">
         <v>1154</v>
@@ -2854,23 +2849,23 @@
         <v>4800</v>
       </c>
       <c r="C180">
+        <v>1154</v>
+      </c>
+      <c r="D180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>1</v>
+      </c>
+      <c r="B181">
+        <v>4800</v>
+      </c>
+      <c r="C181">
         <v>1106</v>
       </c>
-      <c r="D180">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182">
-        <v>1</v>
-      </c>
-      <c r="B182">
-        <v>4992</v>
-      </c>
-      <c r="C182">
-        <v>1106</v>
-      </c>
-      <c r="D182">
+      <c r="D181">
         <v>2</v>
       </c>
     </row>
@@ -2882,7 +2877,7 @@
         <v>4992</v>
       </c>
       <c r="C183">
-        <v>1154</v>
+        <v>1106</v>
       </c>
       <c r="D183">
         <v>2</v>
@@ -2893,7 +2888,7 @@
         <v>1</v>
       </c>
       <c r="B184">
-        <v>5040</v>
+        <v>4992</v>
       </c>
       <c r="C184">
         <v>1154</v>
@@ -2907,10 +2902,10 @@
         <v>1</v>
       </c>
       <c r="B185">
-        <v>4992</v>
+        <v>5040</v>
       </c>
       <c r="C185">
-        <v>1202</v>
+        <v>1154</v>
       </c>
       <c r="D185">
         <v>2</v>
@@ -2921,7 +2916,7 @@
         <v>1</v>
       </c>
       <c r="B186">
-        <v>5040</v>
+        <v>4992</v>
       </c>
       <c r="C186">
         <v>1202</v>
@@ -2935,26 +2930,26 @@
         <v>1</v>
       </c>
       <c r="B187">
+        <v>5040</v>
+      </c>
+      <c r="C187">
+        <v>1202</v>
+      </c>
+      <c r="D187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>1</v>
+      </c>
+      <c r="B188">
         <v>5088</v>
       </c>
-      <c r="C187">
-        <v>1202</v>
-      </c>
-      <c r="D187">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>1</v>
-      </c>
-      <c r="B189">
-        <v>5856</v>
-      </c>
-      <c r="C189">
-        <v>1202</v>
-      </c>
-      <c r="D189">
+      <c r="C188">
+        <v>1202</v>
+      </c>
+      <c r="D188">
         <v>2</v>
       </c>
     </row>
@@ -2963,7 +2958,7 @@
         <v>1</v>
       </c>
       <c r="B190">
-        <v>5904</v>
+        <v>5856</v>
       </c>
       <c r="C190">
         <v>1202</v>
@@ -2977,7 +2972,7 @@
         <v>1</v>
       </c>
       <c r="B191">
-        <v>5952</v>
+        <v>5904</v>
       </c>
       <c r="C191">
         <v>1202</v>
@@ -2991,7 +2986,7 @@
         <v>1</v>
       </c>
       <c r="B192">
-        <v>6000</v>
+        <v>5952</v>
       </c>
       <c r="C192">
         <v>1202</v>
@@ -3005,7 +3000,7 @@
         <v>1</v>
       </c>
       <c r="B193">
-        <v>6048</v>
+        <v>6000</v>
       </c>
       <c r="C193">
         <v>1202</v>
@@ -3019,7 +3014,7 @@
         <v>1</v>
       </c>
       <c r="B194">
-        <v>6096</v>
+        <v>6048</v>
       </c>
       <c r="C194">
         <v>1202</v>
@@ -3033,7 +3028,7 @@
         <v>1</v>
       </c>
       <c r="B195">
-        <v>6144</v>
+        <v>6096</v>
       </c>
       <c r="C195">
         <v>1202</v>
@@ -3047,10 +3042,10 @@
         <v>1</v>
       </c>
       <c r="B196">
-        <v>5904</v>
+        <v>6144</v>
       </c>
       <c r="C196">
-        <v>1154</v>
+        <v>1202</v>
       </c>
       <c r="D196">
         <v>2</v>
@@ -3061,7 +3056,7 @@
         <v>1</v>
       </c>
       <c r="B197">
-        <v>5952</v>
+        <v>5904</v>
       </c>
       <c r="C197">
         <v>1154</v>
@@ -3075,7 +3070,7 @@
         <v>1</v>
       </c>
       <c r="B198">
-        <v>6000</v>
+        <v>5952</v>
       </c>
       <c r="C198">
         <v>1154</v>
@@ -3089,7 +3084,7 @@
         <v>1</v>
       </c>
       <c r="B199">
-        <v>6048</v>
+        <v>6000</v>
       </c>
       <c r="C199">
         <v>1154</v>
@@ -3103,7 +3098,7 @@
         <v>1</v>
       </c>
       <c r="B200">
-        <v>6096</v>
+        <v>6048</v>
       </c>
       <c r="C200">
         <v>1154</v>
@@ -3117,10 +3112,10 @@
         <v>1</v>
       </c>
       <c r="B201">
-        <v>5952</v>
+        <v>6096</v>
       </c>
       <c r="C201">
-        <v>1106</v>
+        <v>1154</v>
       </c>
       <c r="D201">
         <v>2</v>
@@ -3131,7 +3126,7 @@
         <v>1</v>
       </c>
       <c r="B202">
-        <v>6000</v>
+        <v>5952</v>
       </c>
       <c r="C202">
         <v>1106</v>
@@ -3145,7 +3140,7 @@
         <v>1</v>
       </c>
       <c r="B203">
-        <v>6048</v>
+        <v>6000</v>
       </c>
       <c r="C203">
         <v>1106</v>
@@ -3159,7 +3154,7 @@
         <v>1</v>
       </c>
       <c r="B204">
-        <v>6096</v>
+        <v>6048</v>
       </c>
       <c r="C204">
         <v>1106</v>
@@ -3168,17 +3163,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206">
-        <v>1</v>
-      </c>
-      <c r="B206">
-        <v>6288</v>
-      </c>
-      <c r="C206">
-        <v>1202</v>
-      </c>
-      <c r="D206">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>1</v>
+      </c>
+      <c r="B205">
+        <v>6096</v>
+      </c>
+      <c r="C205">
+        <v>1106</v>
+      </c>
+      <c r="D205">
         <v>2</v>
       </c>
     </row>
@@ -3187,7 +3182,7 @@
         <v>1</v>
       </c>
       <c r="B207">
-        <v>6336</v>
+        <v>6288</v>
       </c>
       <c r="C207">
         <v>1202</v>
@@ -3201,12 +3196,1287 @@
         <v>1</v>
       </c>
       <c r="B208">
+        <v>6336</v>
+      </c>
+      <c r="C208">
+        <v>1202</v>
+      </c>
+      <c r="D208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>1</v>
+      </c>
+      <c r="B209">
         <v>6288</v>
       </c>
-      <c r="C208">
+      <c r="C209">
         <v>1154</v>
       </c>
-      <c r="D208">
+      <c r="D209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>1</v>
+      </c>
+      <c r="B211">
+        <v>6768</v>
+      </c>
+      <c r="C211">
+        <v>1106</v>
+      </c>
+      <c r="D211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>1</v>
+      </c>
+      <c r="B212">
+        <v>6816</v>
+      </c>
+      <c r="C212">
+        <v>1106</v>
+      </c>
+      <c r="D212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>1</v>
+      </c>
+      <c r="B214">
+        <v>6768</v>
+      </c>
+      <c r="C214">
+        <v>914</v>
+      </c>
+      <c r="D214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>1</v>
+      </c>
+      <c r="B215">
+        <v>6816</v>
+      </c>
+      <c r="C215">
+        <v>914</v>
+      </c>
+      <c r="D215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>2</v>
+      </c>
+      <c r="B217">
+        <v>1056</v>
+      </c>
+      <c r="C217">
+        <v>1202</v>
+      </c>
+      <c r="D217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>2</v>
+      </c>
+      <c r="B218">
+        <v>1056</v>
+      </c>
+      <c r="C218">
+        <v>1154</v>
+      </c>
+      <c r="D218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>2</v>
+      </c>
+      <c r="B219">
+        <v>1056</v>
+      </c>
+      <c r="C219">
+        <v>1106</v>
+      </c>
+      <c r="D219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>2</v>
+      </c>
+      <c r="B221">
+        <v>5376</v>
+      </c>
+      <c r="C221">
+        <v>1202</v>
+      </c>
+      <c r="D221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>2</v>
+      </c>
+      <c r="B222">
+        <v>5376</v>
+      </c>
+      <c r="C222">
+        <v>1154</v>
+      </c>
+      <c r="D222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>2</v>
+      </c>
+      <c r="B224">
+        <v>5568</v>
+      </c>
+      <c r="C224">
+        <v>1202</v>
+      </c>
+      <c r="D224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>2</v>
+      </c>
+      <c r="B225">
+        <v>5568</v>
+      </c>
+      <c r="C225">
+        <v>1154</v>
+      </c>
+      <c r="D225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>2</v>
+      </c>
+      <c r="B226">
+        <v>5568</v>
+      </c>
+      <c r="C226">
+        <v>1106</v>
+      </c>
+      <c r="D226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>2</v>
+      </c>
+      <c r="B228">
+        <v>6768</v>
+      </c>
+      <c r="C228">
+        <v>1202</v>
+      </c>
+      <c r="D228">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>2</v>
+      </c>
+      <c r="B229">
+        <v>6768</v>
+      </c>
+      <c r="C229">
+        <v>1154</v>
+      </c>
+      <c r="D229">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>2</v>
+      </c>
+      <c r="B231">
+        <v>6960</v>
+      </c>
+      <c r="C231">
+        <v>1202</v>
+      </c>
+      <c r="D231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>2</v>
+      </c>
+      <c r="B232">
+        <v>6960</v>
+      </c>
+      <c r="C232">
+        <v>1154</v>
+      </c>
+      <c r="D232">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>3</v>
+      </c>
+      <c r="B234">
+        <v>720</v>
+      </c>
+      <c r="C234">
+        <v>1106</v>
+      </c>
+      <c r="D234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>3</v>
+      </c>
+      <c r="B235">
+        <v>768</v>
+      </c>
+      <c r="C235">
+        <v>1106</v>
+      </c>
+      <c r="D235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>3</v>
+      </c>
+      <c r="B236">
+        <v>816</v>
+      </c>
+      <c r="C236">
+        <v>1106</v>
+      </c>
+      <c r="D236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>3</v>
+      </c>
+      <c r="B237">
+        <v>816</v>
+      </c>
+      <c r="C237">
+        <v>1010</v>
+      </c>
+      <c r="D237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>3</v>
+      </c>
+      <c r="B238">
+        <v>864</v>
+      </c>
+      <c r="C238">
+        <v>1010</v>
+      </c>
+      <c r="D238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>3</v>
+      </c>
+      <c r="B239">
+        <v>912</v>
+      </c>
+      <c r="C239">
+        <v>1010</v>
+      </c>
+      <c r="D239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>3</v>
+      </c>
+      <c r="B241">
+        <v>1200</v>
+      </c>
+      <c r="C241">
+        <v>1106</v>
+      </c>
+      <c r="D241">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>3</v>
+      </c>
+      <c r="B242">
+        <v>1248</v>
+      </c>
+      <c r="C242">
+        <v>1106</v>
+      </c>
+      <c r="D242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>3</v>
+      </c>
+      <c r="B243">
+        <v>1296</v>
+      </c>
+      <c r="C243">
+        <v>1106</v>
+      </c>
+      <c r="D243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>3</v>
+      </c>
+      <c r="B244">
+        <v>1344</v>
+      </c>
+      <c r="C244">
+        <v>1106</v>
+      </c>
+      <c r="D244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>3</v>
+      </c>
+      <c r="B245">
+        <v>1392</v>
+      </c>
+      <c r="C245">
+        <v>1106</v>
+      </c>
+      <c r="D245">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>3</v>
+      </c>
+      <c r="B246">
+        <v>1392</v>
+      </c>
+      <c r="C246">
+        <v>1010</v>
+      </c>
+      <c r="D246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>3</v>
+      </c>
+      <c r="B247">
+        <v>1440</v>
+      </c>
+      <c r="C247">
+        <v>1010</v>
+      </c>
+      <c r="D247">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>3</v>
+      </c>
+      <c r="B248">
+        <v>1488</v>
+      </c>
+      <c r="C248">
+        <v>1010</v>
+      </c>
+      <c r="D248">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>3</v>
+      </c>
+      <c r="B249">
+        <v>1536</v>
+      </c>
+      <c r="C249">
+        <v>1010</v>
+      </c>
+      <c r="D249">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>3</v>
+      </c>
+      <c r="B250">
+        <v>1536</v>
+      </c>
+      <c r="C250">
+        <v>914</v>
+      </c>
+      <c r="D250">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>3</v>
+      </c>
+      <c r="B251">
+        <v>1584</v>
+      </c>
+      <c r="C251">
+        <v>914</v>
+      </c>
+      <c r="D251">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>3</v>
+      </c>
+      <c r="B252">
+        <v>1632</v>
+      </c>
+      <c r="C252">
+        <v>914</v>
+      </c>
+      <c r="D252">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>3</v>
+      </c>
+      <c r="B253">
+        <v>1680</v>
+      </c>
+      <c r="C253">
+        <v>914</v>
+      </c>
+      <c r="D253">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>3</v>
+      </c>
+      <c r="B254">
+        <v>1536</v>
+      </c>
+      <c r="C254">
+        <v>1154</v>
+      </c>
+      <c r="D254">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>3</v>
+      </c>
+      <c r="B255">
+        <v>1584</v>
+      </c>
+      <c r="C255">
+        <v>1154</v>
+      </c>
+      <c r="D255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>3</v>
+      </c>
+      <c r="B256">
+        <v>1632</v>
+      </c>
+      <c r="C256">
+        <v>1154</v>
+      </c>
+      <c r="D256">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>3</v>
+      </c>
+      <c r="B257">
+        <v>1680</v>
+      </c>
+      <c r="C257">
+        <v>1154</v>
+      </c>
+      <c r="D257">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>3</v>
+      </c>
+      <c r="B258">
+        <v>1728</v>
+      </c>
+      <c r="C258">
+        <v>1154</v>
+      </c>
+      <c r="D258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>3</v>
+      </c>
+      <c r="B259">
+        <v>1776</v>
+      </c>
+      <c r="C259">
+        <v>1154</v>
+      </c>
+      <c r="D259">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>3</v>
+      </c>
+      <c r="B261">
+        <v>3792</v>
+      </c>
+      <c r="C261">
+        <v>1154</v>
+      </c>
+      <c r="D261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>3</v>
+      </c>
+      <c r="B262">
+        <v>3840</v>
+      </c>
+      <c r="C262">
+        <v>1154</v>
+      </c>
+      <c r="D262">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>3</v>
+      </c>
+      <c r="B263">
+        <v>3888</v>
+      </c>
+      <c r="C263">
+        <v>1154</v>
+      </c>
+      <c r="D263">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>3</v>
+      </c>
+      <c r="B264">
+        <v>3936</v>
+      </c>
+      <c r="C264">
+        <v>1154</v>
+      </c>
+      <c r="D264">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>3</v>
+      </c>
+      <c r="B265">
+        <v>3984</v>
+      </c>
+      <c r="C265">
+        <v>1154</v>
+      </c>
+      <c r="D265">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>3</v>
+      </c>
+      <c r="B266">
+        <v>4032</v>
+      </c>
+      <c r="C266">
+        <v>1154</v>
+      </c>
+      <c r="D266">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>3</v>
+      </c>
+      <c r="B267">
+        <v>4080</v>
+      </c>
+      <c r="C267">
+        <v>1154</v>
+      </c>
+      <c r="D267">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>3</v>
+      </c>
+      <c r="B268">
+        <v>3888</v>
+      </c>
+      <c r="C268">
+        <v>1058</v>
+      </c>
+      <c r="D268">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>3</v>
+      </c>
+      <c r="B269">
+        <v>3936</v>
+      </c>
+      <c r="C269">
+        <v>1058</v>
+      </c>
+      <c r="D269">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>3</v>
+      </c>
+      <c r="B270">
+        <v>3984</v>
+      </c>
+      <c r="C270">
+        <v>1058</v>
+      </c>
+      <c r="D270">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>3</v>
+      </c>
+      <c r="B271">
+        <v>4032</v>
+      </c>
+      <c r="C271">
+        <v>1058</v>
+      </c>
+      <c r="D271">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>3</v>
+      </c>
+      <c r="B272">
+        <v>4080</v>
+      </c>
+      <c r="C272">
+        <v>1058</v>
+      </c>
+      <c r="D272">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>3</v>
+      </c>
+      <c r="B273">
+        <v>4128</v>
+      </c>
+      <c r="C273">
+        <v>1058</v>
+      </c>
+      <c r="D273">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>3</v>
+      </c>
+      <c r="B274">
+        <v>4176</v>
+      </c>
+      <c r="C274">
+        <v>1058</v>
+      </c>
+      <c r="D274">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>3</v>
+      </c>
+      <c r="B275">
+        <v>3984</v>
+      </c>
+      <c r="C275">
+        <v>962</v>
+      </c>
+      <c r="D275">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>3</v>
+      </c>
+      <c r="B276">
+        <v>4032</v>
+      </c>
+      <c r="C276">
+        <v>962</v>
+      </c>
+      <c r="D276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>3</v>
+      </c>
+      <c r="B277">
+        <v>4080</v>
+      </c>
+      <c r="C277">
+        <v>962</v>
+      </c>
+      <c r="D277">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>3</v>
+      </c>
+      <c r="B278">
+        <v>4128</v>
+      </c>
+      <c r="C278">
+        <v>962</v>
+      </c>
+      <c r="D278">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>3</v>
+      </c>
+      <c r="B279">
+        <v>4176</v>
+      </c>
+      <c r="C279">
+        <v>962</v>
+      </c>
+      <c r="D279">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>3</v>
+      </c>
+      <c r="B280">
+        <v>4224</v>
+      </c>
+      <c r="C280">
+        <v>962</v>
+      </c>
+      <c r="D280">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>3</v>
+      </c>
+      <c r="B281">
+        <v>4272</v>
+      </c>
+      <c r="C281">
+        <v>962</v>
+      </c>
+      <c r="D281">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>3</v>
+      </c>
+      <c r="B283">
+        <v>6432</v>
+      </c>
+      <c r="C283">
+        <v>1106</v>
+      </c>
+      <c r="D283">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>3</v>
+      </c>
+      <c r="B284">
+        <v>6480</v>
+      </c>
+      <c r="C284">
+        <v>1106</v>
+      </c>
+      <c r="D284">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>3</v>
+      </c>
+      <c r="B285">
+        <v>6528</v>
+      </c>
+      <c r="C285">
+        <v>1106</v>
+      </c>
+      <c r="D285">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>3</v>
+      </c>
+      <c r="B286">
+        <v>6528</v>
+      </c>
+      <c r="C286">
+        <v>818</v>
+      </c>
+      <c r="D286">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>3</v>
+      </c>
+      <c r="B287">
+        <v>6576</v>
+      </c>
+      <c r="C287">
+        <v>818</v>
+      </c>
+      <c r="D287">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>3</v>
+      </c>
+      <c r="B288">
+        <v>6624</v>
+      </c>
+      <c r="C288">
+        <v>818</v>
+      </c>
+      <c r="D288">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>3</v>
+      </c>
+      <c r="B290">
+        <v>3936</v>
+      </c>
+      <c r="C290">
+        <v>434</v>
+      </c>
+      <c r="D290">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>3</v>
+      </c>
+      <c r="B291">
+        <v>3984</v>
+      </c>
+      <c r="C291">
+        <v>434</v>
+      </c>
+      <c r="D291">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>3</v>
+      </c>
+      <c r="B292">
+        <v>4032</v>
+      </c>
+      <c r="C292">
+        <v>434</v>
+      </c>
+      <c r="D292">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>3</v>
+      </c>
+      <c r="B293">
+        <v>4080</v>
+      </c>
+      <c r="C293">
+        <v>434</v>
+      </c>
+      <c r="D293">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>4</v>
+      </c>
+      <c r="B296">
+        <v>4224</v>
+      </c>
+      <c r="C296">
+        <v>578</v>
+      </c>
+      <c r="D296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>4</v>
+      </c>
+      <c r="B297">
+        <v>4272</v>
+      </c>
+      <c r="C297">
+        <v>578</v>
+      </c>
+      <c r="D297">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>4</v>
+      </c>
+      <c r="B298">
+        <v>4320</v>
+      </c>
+      <c r="C298">
+        <v>578</v>
+      </c>
+      <c r="D298">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>4</v>
+      </c>
+      <c r="B299">
+        <v>4368</v>
+      </c>
+      <c r="C299">
+        <v>578</v>
+      </c>
+      <c r="D299">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>4</v>
+      </c>
+      <c r="B301">
+        <v>4464</v>
+      </c>
+      <c r="C301">
+        <v>530</v>
+      </c>
+      <c r="D301">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>4</v>
+      </c>
+      <c r="B302">
+        <v>4512</v>
+      </c>
+      <c r="C302">
+        <v>530</v>
+      </c>
+      <c r="D302">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>4</v>
+      </c>
+      <c r="B303">
+        <v>4560</v>
+      </c>
+      <c r="C303">
+        <v>530</v>
+      </c>
+      <c r="D303">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>4</v>
+      </c>
+      <c r="B304">
+        <v>4608</v>
+      </c>
+      <c r="C304">
+        <v>530</v>
+      </c>
+      <c r="D304">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>4</v>
+      </c>
+      <c r="B305">
+        <v>4656</v>
+      </c>
+      <c r="C305">
+        <v>530</v>
+      </c>
+      <c r="D305">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>4</v>
+      </c>
+      <c r="B306">
+        <v>4704</v>
+      </c>
+      <c r="C306">
+        <v>530</v>
+      </c>
+      <c r="D306">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>4</v>
+      </c>
+      <c r="B307">
+        <v>4752</v>
+      </c>
+      <c r="C307">
+        <v>530</v>
+      </c>
+      <c r="D307">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>4</v>
+      </c>
+      <c r="B308">
+        <v>4800</v>
+      </c>
+      <c r="C308">
+        <v>530</v>
+      </c>
+      <c r="D308">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>4</v>
+      </c>
+      <c r="B309">
+        <v>4848</v>
+      </c>
+      <c r="C309">
+        <v>530</v>
+      </c>
+      <c r="D309">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>4</v>
+      </c>
+      <c r="B310">
+        <v>4896</v>
+      </c>
+      <c r="C310">
+        <v>530</v>
+      </c>
+      <c r="D310">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>4</v>
+      </c>
+      <c r="B311">
+        <v>4944</v>
+      </c>
+      <c r="C311">
+        <v>530</v>
+      </c>
+      <c r="D311">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>4</v>
+      </c>
+      <c r="B312">
+        <v>4992</v>
+      </c>
+      <c r="C312">
+        <v>530</v>
+      </c>
+      <c r="D312">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>4</v>
+      </c>
+      <c r="B313">
+        <v>5040</v>
+      </c>
+      <c r="C313">
+        <v>530</v>
+      </c>
+      <c r="D313">
         <v>2</v>
       </c>
     </row>

--- a/Project1/object.xlsx
+++ b/Project1/object.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\hoc\HK1 2020-2021\phat trien GAME\MarioBros\Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A3EEFF-1D59-4D3F-81ED-5BA84DB7F900}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A8E935-B2E3-49BA-9990-FDE7044DAC47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{63E25CF7-D10F-447E-8225-8804EF2C7F20}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>x</t>
   </si>
@@ -54,7 +54,16 @@
     <t>GHOST OBJECT: 3</t>
   </si>
   <si>
-    <t>CLOUD: 4</t>
+    <t>CLOUD</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t># ghost platform</t>
   </si>
 </sst>
 </file>
@@ -406,15 +415,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE1CBE1-69B9-4E5D-8C71-258DF6953A74}">
-  <dimension ref="A1:D313"/>
+  <dimension ref="A1:S313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A314" sqref="A314:XFD315"/>
+    <sheetView tabSelected="1" topLeftCell="A194" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A217" sqref="A217:D219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -427,8 +436,14 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -442,7 +457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -456,7 +471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -469,8 +484,26 @@
       <c r="D4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>1248</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <v>1872</v>
+      </c>
+      <c r="S4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -483,8 +516,26 @@
       <c r="D5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1872</v>
+      </c>
+      <c r="P5">
+        <v>1200</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <v>1392</v>
+      </c>
+      <c r="S5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -497,8 +548,26 @@
       <c r="D6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>3456</v>
+      </c>
+      <c r="P6">
+        <v>1248</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <v>768</v>
+      </c>
+      <c r="S6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -511,8 +580,26 @@
       <c r="D7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>4224</v>
+      </c>
+      <c r="P7">
+        <v>1248</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>288</v>
+      </c>
+      <c r="S7">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -525,8 +612,26 @@
       <c r="D8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>4608</v>
+      </c>
+      <c r="P8">
+        <v>1248</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+      <c r="R8">
+        <v>240</v>
+      </c>
+      <c r="S8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -540,7 +645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -554,7 +659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -567,8 +672,26 @@
       <c r="D11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>4992</v>
+      </c>
+      <c r="P11">
+        <v>1248</v>
+      </c>
+      <c r="Q11">
+        <v>2</v>
+      </c>
+      <c r="R11">
+        <v>1728</v>
+      </c>
+      <c r="S11">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -581,8 +704,26 @@
       <c r="D12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>6768</v>
+      </c>
+      <c r="P12">
+        <v>1248</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <v>1680</v>
+      </c>
+      <c r="S12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -596,7 +737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -609,8 +750,26 @@
       <c r="D14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1056</v>
+      </c>
+      <c r="P14">
+        <v>1104</v>
+      </c>
+      <c r="Q14">
+        <v>2</v>
+      </c>
+      <c r="R14">
+        <v>96</v>
+      </c>
+      <c r="S14">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -624,7 +783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -637,8 +796,26 @@
       <c r="D16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>5376</v>
+      </c>
+      <c r="P16">
+        <v>1152</v>
+      </c>
+      <c r="Q16">
+        <v>2</v>
+      </c>
+      <c r="R16">
+        <v>96</v>
+      </c>
+      <c r="S16">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -651,8 +828,26 @@
       <c r="D17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>5568</v>
+      </c>
+      <c r="P17">
+        <v>1104</v>
+      </c>
+      <c r="Q17">
+        <v>2</v>
+      </c>
+      <c r="R17">
+        <v>96</v>
+      </c>
+      <c r="S17">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -666,7 +861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -679,8 +874,26 @@
       <c r="D19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>6768</v>
+      </c>
+      <c r="P19">
+        <v>432</v>
+      </c>
+      <c r="Q19">
+        <v>2</v>
+      </c>
+      <c r="R19">
+        <v>96</v>
+      </c>
+      <c r="S19">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -693,8 +906,26 @@
       <c r="D20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>6768</v>
+      </c>
+      <c r="P20">
+        <v>1104</v>
+      </c>
+      <c r="Q20">
+        <v>2</v>
+      </c>
+      <c r="R20">
+        <v>96</v>
+      </c>
+      <c r="S20">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -708,7 +939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -721,8 +952,26 @@
       <c r="D22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>6960</v>
+      </c>
+      <c r="P22">
+        <v>1152</v>
+      </c>
+      <c r="Q22">
+        <v>2</v>
+      </c>
+      <c r="R22">
+        <v>96</v>
+      </c>
+      <c r="S22">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -736,7 +985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -749,8 +998,26 @@
       <c r="D24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>4512</v>
+      </c>
+      <c r="P24">
+        <v>1008</v>
+      </c>
+      <c r="Q24">
+        <v>2</v>
+      </c>
+      <c r="R24">
+        <v>96</v>
+      </c>
+      <c r="S24">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -764,7 +1031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -777,8 +1044,26 @@
       <c r="D26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>4800</v>
+      </c>
+      <c r="P26">
+        <v>1104</v>
+      </c>
+      <c r="Q26">
+        <v>2</v>
+      </c>
+      <c r="R26">
+        <v>48</v>
+      </c>
+      <c r="S26">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -791,8 +1076,26 @@
       <c r="D27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>4752</v>
+      </c>
+      <c r="P27">
+        <v>1152</v>
+      </c>
+      <c r="Q27">
+        <v>2</v>
+      </c>
+      <c r="R27">
+        <v>96</v>
+      </c>
+      <c r="S27">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -805,8 +1108,26 @@
       <c r="D28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>4704</v>
+      </c>
+      <c r="P28">
+        <v>1200</v>
+      </c>
+      <c r="Q28">
+        <v>2</v>
+      </c>
+      <c r="R28">
+        <v>144</v>
+      </c>
+      <c r="S28">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -820,7 +1141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -833,8 +1154,26 @@
       <c r="D30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>4992</v>
+      </c>
+      <c r="P30">
+        <v>1104</v>
+      </c>
+      <c r="Q30">
+        <v>2</v>
+      </c>
+      <c r="R30">
+        <v>48</v>
+      </c>
+      <c r="S30">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -847,8 +1186,26 @@
       <c r="D31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>4992</v>
+      </c>
+      <c r="P31">
+        <v>1152</v>
+      </c>
+      <c r="Q31">
+        <v>2</v>
+      </c>
+      <c r="R31">
+        <v>96</v>
+      </c>
+      <c r="S31">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -861,8 +1218,26 @@
       <c r="D32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>4992</v>
+      </c>
+      <c r="P32">
+        <v>1200</v>
+      </c>
+      <c r="Q32">
+        <v>2</v>
+      </c>
+      <c r="R32">
+        <v>144</v>
+      </c>
+      <c r="S32">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -876,7 +1251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -889,8 +1264,11 @@
       <c r="D34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -903,8 +1281,26 @@
       <c r="D35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N35">
+        <v>3</v>
+      </c>
+      <c r="O35">
+        <v>720</v>
+      </c>
+      <c r="P35">
+        <v>1104</v>
+      </c>
+      <c r="Q35">
+        <v>2</v>
+      </c>
+      <c r="R35">
+        <v>144</v>
+      </c>
+      <c r="S35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -917,8 +1313,26 @@
       <c r="D36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N36">
+        <v>3</v>
+      </c>
+      <c r="O36">
+        <v>816</v>
+      </c>
+      <c r="P36">
+        <v>1008</v>
+      </c>
+      <c r="Q36">
+        <v>2</v>
+      </c>
+      <c r="R36">
+        <v>144</v>
+      </c>
+      <c r="S36">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -932,7 +1346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -945,8 +1359,26 @@
       <c r="D38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N38">
+        <v>3</v>
+      </c>
+      <c r="O38">
+        <v>1200</v>
+      </c>
+      <c r="P38">
+        <v>1104</v>
+      </c>
+      <c r="Q38">
+        <v>2</v>
+      </c>
+      <c r="R38">
+        <v>240</v>
+      </c>
+      <c r="S38">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -959,8 +1391,26 @@
       <c r="D39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N39">
+        <v>3</v>
+      </c>
+      <c r="O39">
+        <v>1392</v>
+      </c>
+      <c r="P39">
+        <v>1008</v>
+      </c>
+      <c r="Q39">
+        <v>2</v>
+      </c>
+      <c r="R39">
+        <v>192</v>
+      </c>
+      <c r="S39">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -973,8 +1423,26 @@
       <c r="D40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N40">
+        <v>3</v>
+      </c>
+      <c r="O40">
+        <v>1536</v>
+      </c>
+      <c r="P40">
+        <v>912</v>
+      </c>
+      <c r="Q40">
+        <v>2</v>
+      </c>
+      <c r="R40">
+        <v>192</v>
+      </c>
+      <c r="S40">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -987,8 +1455,26 @@
       <c r="D41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N41">
+        <v>3</v>
+      </c>
+      <c r="O41">
+        <v>1536</v>
+      </c>
+      <c r="P41">
+        <v>1152</v>
+      </c>
+      <c r="Q41">
+        <v>2</v>
+      </c>
+      <c r="R41">
+        <v>288</v>
+      </c>
+      <c r="S41">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -1002,7 +1488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -1015,8 +1501,26 @@
       <c r="D43">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N43">
+        <v>3</v>
+      </c>
+      <c r="O43">
+        <v>3792</v>
+      </c>
+      <c r="P43">
+        <v>1152</v>
+      </c>
+      <c r="Q43">
+        <v>2</v>
+      </c>
+      <c r="R43">
+        <v>336</v>
+      </c>
+      <c r="S43">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -1029,8 +1533,26 @@
       <c r="D44">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N44">
+        <v>3</v>
+      </c>
+      <c r="O44">
+        <v>3888</v>
+      </c>
+      <c r="P44">
+        <v>1056</v>
+      </c>
+      <c r="Q44">
+        <v>2</v>
+      </c>
+      <c r="R44">
+        <v>336</v>
+      </c>
+      <c r="S44">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -1043,8 +1565,26 @@
       <c r="D45">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N45">
+        <v>3</v>
+      </c>
+      <c r="O45">
+        <v>3984</v>
+      </c>
+      <c r="P45">
+        <v>960</v>
+      </c>
+      <c r="Q45">
+        <v>2</v>
+      </c>
+      <c r="R45">
+        <v>336</v>
+      </c>
+      <c r="S45">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -1058,7 +1598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -1071,8 +1611,26 @@
       <c r="D47">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N47">
+        <v>3</v>
+      </c>
+      <c r="O47">
+        <v>3936</v>
+      </c>
+      <c r="P47">
+        <v>432</v>
+      </c>
+      <c r="Q47">
+        <v>2</v>
+      </c>
+      <c r="R47">
+        <v>192</v>
+      </c>
+      <c r="S47">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -1086,7 +1644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -1099,8 +1657,26 @@
       <c r="D49">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N49">
+        <v>3</v>
+      </c>
+      <c r="O49">
+        <v>6432</v>
+      </c>
+      <c r="P49">
+        <v>1104</v>
+      </c>
+      <c r="Q49">
+        <v>2</v>
+      </c>
+      <c r="R49">
+        <v>144</v>
+      </c>
+      <c r="S49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -1113,8 +1689,26 @@
       <c r="D50">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N50">
+        <v>3</v>
+      </c>
+      <c r="O50">
+        <v>6528</v>
+      </c>
+      <c r="P50">
+        <v>816</v>
+      </c>
+      <c r="Q50">
+        <v>2</v>
+      </c>
+      <c r="R50">
+        <v>144</v>
+      </c>
+      <c r="S50">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -1128,7 +1722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1</v>
       </c>
@@ -1142,7 +1736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -1156,7 +1750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -1170,7 +1764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -1184,7 +1778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
@@ -1198,7 +1792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
@@ -1212,7 +1806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -1226,7 +1820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -1240,7 +1834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
@@ -1254,7 +1848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1</v>
       </c>
@@ -1268,7 +1862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
@@ -1282,7 +1876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
@@ -1296,7 +1890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
@@ -4244,7 +4838,7 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B296">
         <v>4224</v>
@@ -4258,7 +4852,7 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B297">
         <v>4272</v>
@@ -4272,7 +4866,7 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B298">
         <v>4320</v>
@@ -4286,7 +4880,7 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B299">
         <v>4368</v>
@@ -4298,9 +4892,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>3</v>
+      </c>
+    </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B301">
         <v>4464</v>
@@ -4314,7 +4913,7 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B302">
         <v>4512</v>
@@ -4328,7 +4927,7 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B303">
         <v>4560</v>
@@ -4342,7 +4941,7 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B304">
         <v>4608</v>
@@ -4356,7 +4955,7 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B305">
         <v>4656</v>
@@ -4370,7 +4969,7 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B306">
         <v>4704</v>
@@ -4384,7 +4983,7 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B307">
         <v>4752</v>
@@ -4398,7 +4997,7 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B308">
         <v>4800</v>
@@ -4412,7 +5011,7 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B309">
         <v>4848</v>
@@ -4426,7 +5025,7 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B310">
         <v>4896</v>
@@ -4440,7 +5039,7 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B311">
         <v>4944</v>
@@ -4454,7 +5053,7 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B312">
         <v>4992</v>
@@ -4468,7 +5067,7 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B313">
         <v>5040</v>

--- a/Project1/object.xlsx
+++ b/Project1/object.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\hoc\HK1 2020-2021\phat trien GAME\MarioBros\Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A8E935-B2E3-49BA-9990-FDE7044DAC47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A06D73-CC97-4DB1-A39A-AF6E85DBDAD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{63E25CF7-D10F-447E-8225-8804EF2C7F20}"/>
+    <workbookView xWindow="3630" yWindow="3630" windowWidth="21600" windowHeight="11385" xr2:uid="{63E25CF7-D10F-447E-8225-8804EF2C7F20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,8 +417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE1CBE1-69B9-4E5D-8C71-258DF6953A74}">
   <dimension ref="A1:S313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A217" sqref="A217:D219"/>
+    <sheetView tabSelected="1" topLeftCell="A293" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E300" sqref="E300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4775,7 +4775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>3</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>3</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>3</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>3</v>
       </c>
@@ -4831,12 +4831,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>3</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>3</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>3</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>3</v>
       </c>
@@ -4891,13 +4891,12 @@
       <c r="D299">
         <v>2</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A300">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E299">
+        <f>B313-B301</f>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>3</v>
       </c>
@@ -4911,7 +4910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>3</v>
       </c>
@@ -4925,7 +4924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>3</v>
       </c>
@@ -4939,7 +4938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>3</v>
       </c>
